--- a/biology/Botanique/Voile_d'ombrage/Voile_d'ombrage.xlsx
+++ b/biology/Botanique/Voile_d'ombrage/Voile_d'ombrage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voile_d%27ombrage</t>
+          <t>Voile_d'ombrage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un voile d’ombrage est une toile tendue pour protéger une zone du soleil ou des intempéries. 
 L’apparition des voiles d’ombrages est assez récente puisqu’elles remplacent les parasols stores ou pergola. Le plus souvent, les voiles d’ombrage sont utilisés à proximité des terrasses et piscines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Voile_d%27ombrage</t>
+          <t>Voile_d'ombrage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les voiles d’ombrage ont plusieurs intérêts : 
-Le design attire[1] : le choix des coloris est souvent très large et permet un maximum de personnalisation. De plus, leurs formes s’adaptent à tous les types d’habitats et de reliefs.
+Le design attire : le choix des coloris est souvent très large et permet un maximum de personnalisation. De plus, leurs formes s’adaptent à tous les types d’habitats et de reliefs.
 Un aspect pratique qui donne avantage aux voiles d’ombrage face aux parasols : plutôt que de n’avoir qu’une petite surface de protégée, la voile d’ombrage permet une personnalisation maximale de la zone à couvrir.
 Des possibilités esthétiques : il est possible de créer sa propre ambiance pour rendre cet espace unique et convivial ; par les formes et l’association de plusieurs voiles.
 Les voiles d’ombrage permettent de pouvoir couvrir une surface plus grande qu’un traditionnel parasol.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Voile_d%27ombrage</t>
+          <t>Voile_d'ombrage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les voiles peuvent être : 
 triangulaires : un bon rapport entre la surface couverte et le design ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Voile_d%27ombrage</t>
+          <t>Voile_d'ombrage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Fixation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un voile d’ombrage doit être tendu, souvent depuis des ancrages sur les murs. Si cela n’est pas possible, il faut utiliser des mâts ou les deux.
 </t>
